--- a/zhongjiao_投资公司报表统计整理后(1).xlsx
+++ b/zhongjiao_投资公司报表统计整理后(1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\实验室\中交一公局\ZhongJiaoExcelProcess\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室工作\ZhongJiaoExcelProcess\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="zhongjiao_1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
   <si>
     <t>数据采集</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -157,9 +157,6 @@
     <t>附件2：2018年投资完成情况报告提纲</t>
   </si>
   <si>
-    <t>投资公司-报表统计表</t>
-  </si>
-  <si>
     <t>TZHW0001</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -330,10 +327,6 @@
     <t>TZZJBS0004</t>
   </si>
   <si>
-    <t>TZ0001</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 模板-各单位报海外事业部的报表</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -431,10 +424,6 @@
   </si>
   <si>
     <t>TZ:投资公司-报表统计ZJ:报中交集团的报表BS:通知-关于做好2018年投资完成情况报送工作</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TZ:投资公司-报表统计</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1147,6 +1136,27 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1154,27 +1164,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1498,35 +1487,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="65" style="9" customWidth="1"/>
-    <col min="4" max="4" width="48.21875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="27" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="22.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="65" style="6" customWidth="1"/>
+    <col min="4" max="4" width="48.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="27" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1546,741 +1535,722 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="11"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7" t="s">
+      <c r="D46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8" t="s">
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="8" t="s">
+      <c r="F47" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="8" t="s">
+      <c r="F48" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8" t="s">
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="8" t="s">
+      <c r="D49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F49" s="9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7" t="s">
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="11" t="s">
+      <c r="D52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" s="9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7" t="s">
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="9"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F52" s="11" t="s">
+      <c r="D54" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="8" t="s">
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="9"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="8" t="s">
+      <c r="E57" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>123</v>
-      </c>
+      <c r="F57" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="F52:F53"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A58"/>
+    <mergeCell ref="A3:A57"/>
     <mergeCell ref="B3:B40"/>
     <mergeCell ref="C5:C22"/>
     <mergeCell ref="C23:C40"/>
@@ -2291,6 +2261,11 @@
     <mergeCell ref="C54:C57"/>
     <mergeCell ref="F5:F22"/>
     <mergeCell ref="F23:F40"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="F52:F53"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
